--- a/database/industries/methanol/shekhark/cost/yearly.xlsx
+++ b/database/industries/methanol/shekhark/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E5DBC1-3D3C-4500-B7F9-DEDD0AFFE80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FF1ADF-793E-4E8E-B301-7DB4860CEC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -635,12 +635,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +650,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +684,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +718,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,95 +750,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3609549</v>
+        <v>6139276</v>
       </c>
       <c r="F10" s="9">
-        <v>6139276</v>
+        <v>6782515</v>
       </c>
       <c r="G10" s="9">
-        <v>6782515</v>
+        <v>13672872</v>
       </c>
       <c r="H10" s="9">
-        <v>13672872</v>
+        <v>45731705</v>
       </c>
       <c r="I10" s="9">
-        <v>45731705</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46464713</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>317458</v>
+        <v>380948</v>
       </c>
       <c r="F11" s="11">
-        <v>380948</v>
+        <v>459138</v>
       </c>
       <c r="G11" s="11">
-        <v>459138</v>
+        <v>1617607</v>
       </c>
       <c r="H11" s="11">
-        <v>1617607</v>
+        <v>2234393</v>
       </c>
       <c r="I11" s="11">
-        <v>2234393</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3816668</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>3244825</v>
+        <v>3717771</v>
       </c>
       <c r="F12" s="9">
-        <v>3717771</v>
+        <v>4489574</v>
       </c>
       <c r="G12" s="9">
-        <v>4489574</v>
+        <v>5724950</v>
       </c>
       <c r="H12" s="9">
-        <v>5724950</v>
+        <v>12277785</v>
       </c>
       <c r="I12" s="9">
-        <v>12277785</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16454698</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>7171832</v>
+        <v>10237995</v>
       </c>
       <c r="F13" s="13">
-        <v>10237995</v>
+        <v>11731227</v>
       </c>
       <c r="G13" s="13">
-        <v>11731227</v>
+        <v>21015429</v>
       </c>
       <c r="H13" s="13">
-        <v>21015429</v>
+        <v>60243883</v>
       </c>
       <c r="I13" s="13">
-        <v>60243883</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66736079</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -860,29 +860,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>7171832</v>
+        <v>10237995</v>
       </c>
       <c r="F15" s="13">
-        <v>10237995</v>
+        <v>11731227</v>
       </c>
       <c r="G15" s="13">
-        <v>11731227</v>
+        <v>21015429</v>
       </c>
       <c r="H15" s="13">
-        <v>21015429</v>
+        <v>60243883</v>
       </c>
       <c r="I15" s="13">
-        <v>60243883</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66736079</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -926,95 +926,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>7171832</v>
+        <v>10237995</v>
       </c>
       <c r="F18" s="15">
-        <v>10237995</v>
+        <v>11731227</v>
       </c>
       <c r="G18" s="15">
-        <v>11731227</v>
+        <v>21015429</v>
       </c>
       <c r="H18" s="15">
-        <v>21015429</v>
+        <v>60243883</v>
       </c>
       <c r="I18" s="15">
-        <v>60243883</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66736079</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>722112</v>
+        <v>832101</v>
       </c>
       <c r="F19" s="11">
-        <v>832101</v>
+        <v>1347732</v>
       </c>
       <c r="G19" s="11">
-        <v>1347732</v>
+        <v>1787555</v>
       </c>
       <c r="H19" s="11">
-        <v>1787555</v>
+        <v>4233413</v>
       </c>
       <c r="I19" s="11">
-        <v>4233413</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9404229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-832101</v>
+        <v>-1347732</v>
       </c>
       <c r="F20" s="9">
-        <v>-1347732</v>
+        <v>-1787555</v>
       </c>
       <c r="G20" s="9">
-        <v>-1787555</v>
+        <v>-4233413</v>
       </c>
       <c r="H20" s="9">
-        <v>-4233413</v>
+        <v>-9404229</v>
       </c>
       <c r="I20" s="9">
-        <v>-9404229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-9181565</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>7061843</v>
+        <v>9722364</v>
       </c>
       <c r="F21" s="13">
-        <v>9722364</v>
+        <v>11291404</v>
       </c>
       <c r="G21" s="13">
-        <v>11291404</v>
+        <v>18569571</v>
       </c>
       <c r="H21" s="13">
-        <v>18569571</v>
+        <v>55073067</v>
       </c>
       <c r="I21" s="13">
-        <v>55073067</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66958743</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1036,29 +1036,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>7061843</v>
+        <v>9722364</v>
       </c>
       <c r="F23" s="13">
-        <v>9722364</v>
+        <v>11291404</v>
       </c>
       <c r="G23" s="13">
-        <v>11291404</v>
+        <v>18569571</v>
       </c>
       <c r="H23" s="13">
-        <v>18569571</v>
+        <v>55073067</v>
       </c>
       <c r="I23" s="13">
-        <v>55073067</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66958743</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1120,7 +1120,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1137,14 +1137,14 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1152,8 +1152,8 @@
         <v>28</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1161,14 +1161,14 @@
       <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
+      <c r="H30" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1210,7 +1210,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1220,7 +1220,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1252,7 +1252,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1269,14 +1269,14 @@
       <c r="G37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
+      <c r="H37" s="9">
+        <v>763</v>
       </c>
       <c r="I37" s="9">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1284,45 +1284,45 @@
         <v>28</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>25904</v>
       </c>
       <c r="F38" s="11">
-        <v>25904</v>
+        <v>24253</v>
       </c>
       <c r="G38" s="11">
-        <v>24253</v>
-      </c>
-      <c r="H38" s="11">
         <v>26004</v>
       </c>
+      <c r="H38" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I38" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>25904</v>
       </c>
       <c r="F39" s="15">
-        <v>25904</v>
+        <v>24253</v>
       </c>
       <c r="G39" s="15">
-        <v>24253</v>
+        <v>26004</v>
       </c>
       <c r="H39" s="15">
-        <v>26004</v>
+        <v>763</v>
       </c>
       <c r="I39" s="15">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1342,7 +1342,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1384,7 +1384,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1401,14 +1401,14 @@
       <c r="G45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
+      <c r="H45" s="9">
+        <v>763</v>
       </c>
       <c r="I45" s="9">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1416,45 +1416,45 @@
         <v>28</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>25904</v>
       </c>
       <c r="F46" s="11">
-        <v>25904</v>
+        <v>24253</v>
       </c>
       <c r="G46" s="11">
-        <v>24253</v>
-      </c>
-      <c r="H46" s="11">
         <v>26004</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>25904</v>
       </c>
       <c r="F47" s="15">
-        <v>25904</v>
+        <v>24253</v>
       </c>
       <c r="G47" s="15">
-        <v>24253</v>
+        <v>26004</v>
       </c>
       <c r="H47" s="15">
-        <v>26004</v>
+        <v>763</v>
       </c>
       <c r="I47" s="15">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1533,14 +1533,14 @@
       <c r="G53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>26</v>
+      <c r="H53" s="9">
+        <v>0</v>
       </c>
       <c r="I53" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1548,8 +1548,8 @@
         <v>28</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>0</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
@@ -1557,14 +1557,14 @@
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
+      <c r="H54" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1606,7 +1606,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>32</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1665,14 +1665,14 @@
       <c r="G61" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>26</v>
+      <c r="H61" s="9">
+        <v>0</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1680,8 +1680,8 @@
         <v>33</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>0</v>
       </c>
       <c r="F62" s="11">
         <v>0</v>
@@ -1689,14 +1689,14 @@
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
+      <c r="H62" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1738,7 +1738,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1797,14 +1797,14 @@
       <c r="G69" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
+      <c r="H69" s="9">
+        <v>45731705</v>
       </c>
       <c r="I69" s="9">
-        <v>45731705</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46464713</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1812,45 +1812,45 @@
         <v>33</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>6139276</v>
       </c>
       <c r="F70" s="11">
-        <v>6139276</v>
+        <v>6782515</v>
       </c>
       <c r="G70" s="11">
-        <v>6782515</v>
-      </c>
-      <c r="H70" s="11">
         <v>13672872</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I70" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>6139276</v>
       </c>
       <c r="F71" s="15">
-        <v>6139276</v>
+        <v>6782515</v>
       </c>
       <c r="G71" s="15">
-        <v>6782515</v>
+        <v>13672872</v>
       </c>
       <c r="H71" s="15">
-        <v>13672872</v>
+        <v>45731705</v>
       </c>
       <c r="I71" s="15">
-        <v>45731705</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46464713</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -1929,14 +1929,14 @@
       <c r="G77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>26</v>
+      <c r="H77" s="9">
+        <v>45731705</v>
       </c>
       <c r="I77" s="9">
-        <v>45731705</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46464713</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -1944,45 +1944,45 @@
         <v>33</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>6139276</v>
       </c>
       <c r="F78" s="11">
-        <v>6139276</v>
+        <v>6782515</v>
       </c>
       <c r="G78" s="11">
-        <v>6782515</v>
-      </c>
-      <c r="H78" s="11">
         <v>13672872</v>
       </c>
+      <c r="H78" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I78" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>6139276</v>
       </c>
       <c r="F79" s="15">
-        <v>6139276</v>
+        <v>6782515</v>
       </c>
       <c r="G79" s="15">
-        <v>6782515</v>
+        <v>13672872</v>
       </c>
       <c r="H79" s="15">
-        <v>13672872</v>
+        <v>45731705</v>
       </c>
       <c r="I79" s="15">
-        <v>45731705</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46464713</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2012,7 +2012,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2044,7 +2044,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2061,14 +2061,14 @@
       <c r="G85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>26</v>
+      <c r="H85" s="9">
+        <v>0</v>
       </c>
       <c r="I85" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2076,8 +2076,8 @@
         <v>33</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>0</v>
       </c>
       <c r="F86" s="11">
         <v>0</v>
@@ -2085,14 +2085,14 @@
       <c r="G86" s="11">
         <v>0</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
+      <c r="H86" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2134,7 +2134,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2144,7 +2144,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>37</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2176,7 +2176,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -2193,14 +2193,14 @@
       <c r="G93" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>26</v>
+      <c r="H93" s="9">
+        <v>59936703801</v>
       </c>
       <c r="I93" s="9">
-        <v>59936703801</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60031928941</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
@@ -2208,23 +2208,23 @@
         <v>39</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>26</v>
+      <c r="E94" s="11">
+        <v>237000715</v>
       </c>
       <c r="F94" s="11">
-        <v>237000715</v>
+        <v>279656744</v>
       </c>
       <c r="G94" s="11">
-        <v>279656744</v>
-      </c>
-      <c r="H94" s="11">
         <v>525798800</v>
       </c>
+      <c r="H94" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I94" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2244,7 +2244,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
@@ -2303,14 +2303,14 @@
       <c r="G100" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>26</v>
+      <c r="H100" s="9">
+        <v>59936703801</v>
       </c>
       <c r="I100" s="9">
-        <v>59936703801</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60031928941</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>27</v>
       </c>
@@ -2318,23 +2318,23 @@
         <v>39</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>26</v>
+      <c r="E101" s="11">
+        <v>237000715</v>
       </c>
       <c r="F101" s="11">
-        <v>237000715</v>
+        <v>279656744</v>
       </c>
       <c r="G101" s="11">
-        <v>279656744</v>
-      </c>
-      <c r="H101" s="11">
         <v>525798800</v>
       </c>
+      <c r="H101" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I101" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2344,7 +2344,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2354,7 +2354,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2396,20 +2396,20 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>150267</v>
+        <v>86744</v>
       </c>
       <c r="F107" s="9">
-        <v>86744</v>
+        <v>107058</v>
       </c>
       <c r="G107" s="9">
-        <v>107058</v>
+        <v>0</v>
       </c>
       <c r="H107" s="9">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>43</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>44</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>45</v>
       </c>
@@ -2484,95 +2484,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>612418</v>
+        <v>638191</v>
       </c>
       <c r="F111" s="9">
-        <v>638191</v>
+        <v>812293</v>
       </c>
       <c r="G111" s="9">
-        <v>812293</v>
+        <v>1584414</v>
       </c>
       <c r="H111" s="9">
-        <v>1584414</v>
+        <v>1738726</v>
       </c>
       <c r="I111" s="9">
-        <v>1738726</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1754775</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>811296</v>
+        <v>675637</v>
       </c>
       <c r="F112" s="11">
-        <v>675637</v>
+        <v>1057132</v>
       </c>
       <c r="G112" s="11">
-        <v>1057132</v>
+        <v>990806</v>
       </c>
       <c r="H112" s="11">
-        <v>990806</v>
+        <v>5646581</v>
       </c>
       <c r="I112" s="11">
-        <v>5646581</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7909282</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>193245</v>
+        <v>177455</v>
       </c>
       <c r="F113" s="9">
-        <v>177455</v>
+        <v>135249</v>
       </c>
       <c r="G113" s="9">
-        <v>135249</v>
+        <v>400424</v>
       </c>
       <c r="H113" s="9">
-        <v>400424</v>
+        <v>484188</v>
       </c>
       <c r="I113" s="9">
-        <v>484188</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>651994</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>1289518</v>
+        <v>1621314</v>
       </c>
       <c r="F114" s="11">
-        <v>1621314</v>
+        <v>1569205</v>
       </c>
       <c r="G114" s="11">
-        <v>1569205</v>
+        <v>2054464</v>
       </c>
       <c r="H114" s="11">
-        <v>2054464</v>
+        <v>2851858</v>
       </c>
       <c r="I114" s="11">
-        <v>2851858</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4777538</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>50</v>
       </c>
@@ -2594,48 +2594,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>188081</v>
+        <v>518430</v>
       </c>
       <c r="F116" s="11">
-        <v>518430</v>
+        <v>808637</v>
       </c>
       <c r="G116" s="11">
-        <v>808637</v>
+        <v>694842</v>
       </c>
       <c r="H116" s="11">
-        <v>694842</v>
+        <v>1556432</v>
       </c>
       <c r="I116" s="11">
-        <v>1556432</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1361109</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>3244825</v>
+        <v>3717771</v>
       </c>
       <c r="F117" s="15">
-        <v>3717771</v>
+        <v>4489574</v>
       </c>
       <c r="G117" s="15">
-        <v>4489574</v>
+        <v>5724950</v>
       </c>
       <c r="H117" s="15">
-        <v>5724950</v>
+        <v>12277785</v>
       </c>
       <c r="I117" s="15">
-        <v>12277785</v>
+        <v>16454698</v>
       </c>
     </row>
   </sheetData>
